--- a/bot/data/files/to_send/class_managers.xlsx
+++ b/bot/data/files/to_send/class_managers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,193 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Суднева</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Александра</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5А</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Бакай</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Бакай</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>7Л</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Фалеева</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Татьяна</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5Б</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Макарова</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Наталия</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10В, 10И</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Кордова</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Светлана</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5Ж</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Товбина</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Мария</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8Л</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Пелевин</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Олег</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5К</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Белова</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Анжела</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5З</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Леонова</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ирина</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>9Л</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ибрагимова</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Светлана</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>6Е</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Алексеева</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Маргарита Сергеевна</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5Ф, 6Ф, 7Ф, 8Ф, 9Ф</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
